--- a/data/amazon_url_1_review_data.xlsx
+++ b/data/amazon_url_1_review_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,88 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>User_Star_rating</t>
+          <t>productID</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Review_content</t>
+          <t>prodSiteID</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Reviewer_name</t>
+          <t>ReviewID</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Review_title</t>
+          <t>review_header</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Helpful_votes</t>
+          <t>reviewer_name</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Verified_purchase</t>
+          <t>review_content</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>review_star_rating</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>review_helpful_votes</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>verified_purchase</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
+        <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Wonderful product and would recommend!</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>S&amp;K</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>I had an older android and was having a hard time deciding what, and when to get, a new phone. I love Android and I was really intrigued with the Google and Asus phones. I have had a galaxy since the beginning of smart phones it would seem. Well, looking at all options as well, the red iPhone caught my attention solely in color. I know IPhone is a good phone, for the most part, everyone I know seems to have iPhone or Galaxy. I have never owned an iPhone and they are much more expensive than the phones I was looking at. But the red iPhone, I just kept coming back to. I started looking into the differences, and then started looking into refurbished. I have also never purchased a refurbished phone. The price difference for a “Premium” or “excellent” condition iPhone, was significantly cheaper than buying brand new. I went back and forth on Amazon, with different sellers based on reviews, and ended up landing in the option where it is sold and shipped by Amazon themselves (which I thought was more likely to be exactly what is described in their product page). I will say the first try to purchase did not go through, so there were some issues with the monthly insurance plan for the phone. But the second time it did go through, and I was having to wait probably 4 days for it to get here. I was so excited, like a kid waiting for Christmas to get here.
 Finally the iPhone arrived, and in absolute perfect condition. I went with the “premium refurbished” option. The delivery was incredibly secure and the driver was extra helpful before they arrived so we could time it. I opened the box and there is not one scratch or thing that would tell you that this isn’t a brand new phone. It comes with a charger, block and the phone information on a leaflet (that would otherwise be in the original iPhone packaging). I did wait to activate it, until I had time to go into a physical carrier store, but I backed up everything before I did that in my old phone. It took maybe 5 minutes for the associate at my carrier store, to set the iPhone up and transfer everything I wanted from my galaxy and the service, to the iPhone. I was worried based on other reviews that it could possibly not be unlocked to all carriers, but it was. One of the main reasons I chose to buy the refurbished option from the sold by/ships by Amazon option, because I trusted the accuracy of the description more.
 ALL THAT SAID beautiful phone, looks brand new, works like it’s brand new, has 100% battery life out of the box and is very easy to get used to (even if you have had an android all your adult life). I definitely recommend this product and Amazon as the seller to ensure you get what you are looking for. I am SO happy with my purchase and when it comes time to get a new phone a few years from now, I will be starting here this time! The RED color is beautiful!!!</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>S&amp;K</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Wonderful product and would recommend!</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>11 people found this helpful</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -499,30 +525,41 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
+        <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>It is renewed but looked like new</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Andre</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>It was packaged very well, Amazon packaging, not Apple, and everything looked like new. No scratches, very clean, the sceen like never touched.
 Battery is so far good. The setup not different than any other iPhone 14. Good buy, and I am inclined to trust Amazon renewed from now on.</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Andre</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>It is renewed but looked like new</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="n">
+        <v>5</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -530,29 +567,40 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Worth it</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Alice</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>The phone came in perfect conditions, without scratches, and 100% healthy battery, totally worth it bc I paid cheaper for a phone like new</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Alice</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Worth it</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="n">
+        <v>5</v>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>2 people found this helpful</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -564,25 +612,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Brick Stolen Device</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dana Rajc</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>If I could send negative stars I would. The phone looked great and it was a great deal;however the device was unable to be activated due to it being reported lost or stolen. This was for a teenager who had already been without a phone for 3days now having to return the device. The customer service representative had no idea what I was talking about. I’ve worked in the cell phone industry, when a phone especially an iPhone is reported lost or stolen you cannot activate the device ANYWHERE hence the name brick it’s basically as good as a brick. I was told nothing could be done about it while I just ship the phone back half to waive for my $700 to be refunded to me while my teenager is still waiting without a phone and I’m without money. I’ve also had all carriers and not one made me sit without a phone or a refund processed right away. To top it off I asked to speak to a supervisor and when I told the supervisor the phone was reported lost or stolen she called me a liar and told me that’s simply not true!! Amazon did not do its due diligence by inspecting the phone properly. There is a national database for lost/stolen phones if they did they job accurately and checked not one but both the IMEI’s since it only has an eSIM they would have caught that it was reported! But for an Amazon employee to call me a liar? Are you kidding me? Don’t buy a “renewed” device from Amazon or risk having a yourself $500-$700 brick losing out of money and being without a phone! Not even an adjustments credits nothing but being humiliated without money and no product.</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Dana Rajc</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Brick Stolen Device</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>23 people found this helpful</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>24 people found this helpful</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -590,29 +649,40 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Dennis Deckmann</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Minimum quality. Seems to pick up noise. Not very good for a name brand.</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Minimum quality. Seems to pick up noise. Not very good for a name brand.</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Dennis Deckmann</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Minimum</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -620,29 +690,40 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Amazon Warehouse for the Win!</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Mrs. K</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>I got a great deal on this at Amazon Warehouse. The kid's old XR was slowly dying. This is a great replacement. Always check Amazon Warehouse for gently used. For Apple products, it's meant something nearly brand new. Sometimes just a banged up Apple box. This came in different packaging, but it works great. Reset it. Download all the updates and you're good to go. YMMV.</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Mrs. K</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Amazon Warehouse for the Win!</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="n">
+        <v>5</v>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>2 people found this helpful</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -650,29 +731,40 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>The product is perfect no scratches and I don’t understand why it’s renewed it’s brand new and battery capacity is 100% and it’s great.</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Shelby Forbush</t>
-        </is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>It’s perfect</t>
+          <t>Awesome</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0 helpful votes</t>
+          <t>David Chaves Rojas</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
+        <is>
+          <t>Got my phone, 10/10. No scratches, still have Apple warranty, battery is 100% life.</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>5</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -680,29 +772,40 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Like new iPhone 14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Rick</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>The iPhone 14 came with a battery that had 100% capacity and looked like it was new. The setup went flawlessly. I wouldn’t hesitate to buy a renewed premium device again.</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Rick</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Like new iPhone 14</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="n">
+        <v>5</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -710,30 +813,41 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
+        <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>9</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Better than new!</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Love to sleep</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>This is my second iPhone purchase from Amazon both times I have been extremely happy. The phones were in excellent condition PLUS Amazon gave me a trade-in. I received the trade-in exactly the price they quoted me within 3 days of receiving my trade in.
 The wonderful thing is Amazon stands behind everything they sell!</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Love to sleep</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Better than new!</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="n">
+        <v>5</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -741,29 +855,40 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>10</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Una muy buena compra</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Excelente equipo batería al 98% como nuevo 👍🏻</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Excelente equipo la verdad me sorprendido más de lo q esperaba batería 🔋 98% y sin marcas o rayones</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
         <v>4</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Excelente equipo la verdad me sorprendido más de lo q esperaba batería 🔋 98% y sin marcas o rayones</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Excelente equipo batería al 98% como nuevo 👍🏻</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Una muy buena compra</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -771,29 +896,40 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Love my new iPhone 14 I would definitely recommend this product it did not come in the original box but had the brand new charger with it not a scratch or dent on it it was perfectly brand new I love it!!!</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Jamie</t>
-        </is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>11</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>iPhone 14</t>
+          <t>Lo necesito</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0 helpful votes</t>
+          <t>Isabella Guerrero</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
+        <is>
+          <t>Asta el momento esta bien la compra tengo un mes con el</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>4</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -801,29 +937,40 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Asta el momento esta bien la compra tengo un mes con el</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Isabella Guerrero</t>
-        </is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>12</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Lo necesito</t>
+          <t>iPhone 14</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0 helpful votes</t>
+          <t>Jamie</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
+        <is>
+          <t>Love my new iPhone 14 I would definitely recommend this product it did not come in the original box but had the brand new charger with it not a scratch or dent on it it was perfectly brand new I love it!!!</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>5</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -831,29 +978,40 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>13</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Great Inexpensive Upgrade</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Nicholas Goff</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>This is one of the best purchases I have ever made. After being stuck with the iPhone SE, it feels good to upgrade for under 1000 dollars. Love the security features, and the whole phone! Well worth it.</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Nicholas Goff</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Great Inexpensive Upgrade</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="n">
+        <v>5</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -861,29 +1019,40 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Got my phone, 10/10. No scratches, still have Apple warranty, battery is 100% life.</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>David Chaves Rojas</t>
-        </is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>14</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Awesome</t>
+          <t>It’s perfect</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0 helpful votes</t>
+          <t>Shelby Forbush</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
+        <is>
+          <t>The product is perfect no scratches and I don’t understand why it’s renewed it’s brand new and battery capacity is 100% and it’s great.</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>5</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -891,29 +1060,40 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>15</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Excellent quality</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Samantha Oller</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>I would’ve assumed this was a new phone if it didn’t say it was refurbished.</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Samantha Oller</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Excellent quality</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="n">
+        <v>5</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -921,29 +1101,40 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>16</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Brand New</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Satisfied customer</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>it's basically a brand new phone though for cheaper. Didn't have any issues with it, works perfectly.</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Satisfied customer</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Brand New</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="n">
+        <v>5</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -951,29 +1142,40 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>17</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Excelente</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Moldea muy bien, me gustó mucho! Es cómodo de usar</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>En perfectas condiciones, 100% el estado de la batería, muy recomendado</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Moldea muy bien, me gustó mucho! Es cómodo de usar</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Excelente</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="n">
+        <v>5</v>
+      </c>
+      <c r="H18" t="inlineStr">
         <is>
           <t>One person found this helpful</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -981,29 +1183,40 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>18</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Would had been nice to know</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Amazon Customer</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>I purchased this to switch from a old iPhone, only to find out it didn’t have a SIM card slot. meaning I was unable to use the product seeing that I didn’t have the info to set up a eSim. The return process was so frustrating.</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
         <v>4</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>I purchased this to switch from a old iPhone, only to find out it didn’t have a SIM card slot. meaning I was unable to use the product seeing that I didn’t have the info to set up a eSim. The return process was so frustrating.</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Amazon Customer</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Would had been nice to know</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>13 people found this helpful</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1011,9 +1224,27 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
+        <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>19</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Couldn’t connect it to my cell service carrier.</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Panda</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
         <is>
           <t>Pros:
 -No cracks or scratches
@@ -1025,22 +1256,15 @@
 If you want to take a chance, go for it, as there’s other reviews stating that the phone worked for them. I can’t say for sure whether it was a prepaid plan issue, an apple issue, or an Amazon issue, but I just know I couldn’t get what I needed from the phone. I’m keeping the review at 3 stars, because although I had to return it after it giving me a lot of trouble, everything else from the delivery to the state of the phone was perfect. I wish you better luck than I had if you order!</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Panda</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Couldn’t connect it to my cell service carrier.</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="n">
+        <v>3</v>
+      </c>
+      <c r="H20" t="inlineStr">
         <is>
           <t>46 people found this helpful</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1048,29 +1272,40 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>20</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Excelente</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Diego Sanchez</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>Todo estuvo muy bien</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Diego Sanchez</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Excelente</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="n">
+        <v>5</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1078,29 +1313,40 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>21</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Ease of use.</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Willie Ford</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>It was so easy to transfer all sim information from old iPhone to new iPhone. The setup was seamless including the photo ID setup.</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Willie Ford</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Ease of use.</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="n">
+        <v>5</v>
+      </c>
+      <c r="H22" t="inlineStr">
         <is>
           <t>2 people found this helpful</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1108,29 +1354,40 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>22</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Working as expected. Apple quality as expected.</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Nice phone! Quality camera!</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>Everything works! Thanks!</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Nice phone! Quality camera!</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Working as expected. Apple quality as expected.</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="n">
+        <v>5</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1138,29 +1395,40 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>23</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>amazing</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>alexis northup</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
           <t>just like brand new! def buy this. !</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>alexis northup</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>amazing</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="n">
+        <v>5</v>
+      </c>
+      <c r="H24" t="inlineStr">
         <is>
           <t>One person found this helpful</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1168,29 +1436,40 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>24</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>App loading</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Amazon Customer</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>I am still in the process of loading app,s in the phone and have not to this point used the phone yet.</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Amazon Customer</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>App loading</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="n">
+        <v>5</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1198,30 +1477,41 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B26" t="inlineStr">
+        <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>25</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Better than expected.</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Tripp</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
         <is>
           <t>First time ordering renewed premium. Was kinda skeptical but phone came literally looking brand new. 100% battery health and no scratches or imperfections anywhere. Renew premium looks to be the move for future purchases.
 Will update if anything occurs out of the norm in the future.</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Tripp</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Better than expected.</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="n">
+        <v>5</v>
+      </c>
+      <c r="H26" t="inlineStr">
         <is>
           <t>5 people found this helpful</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1229,30 +1519,41 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B27" t="inlineStr">
+        <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>26</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Amazing way to save money but…</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Joshua Payne</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
         <is>
           <t>I saved over $100 by buying it renewed and got pretty much a brand new iPhone 14. The only catch was, I had to go through 5 customer service representatives with my carrier to get it transferred over. Have another phone available besides the one you’re trying to transfer. They deactivated my old phone and tried activating the new one. That left me with two deactivated phones. I had to use someone else’s phone just to get mine activated.
 Overall worth saving over $100 for 4 hours of phone calls tho</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Joshua Payne</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Amazing way to save money but…</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="n">
+        <v>4</v>
+      </c>
+      <c r="H27" t="inlineStr">
         <is>
           <t>19 people found this helpful</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1260,29 +1561,40 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>27</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Practically brand new</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Gustavo Perez</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>From the description of the listing I was expecting a near new phone with minimal wear. What I got was a phone that is practically new, inside and out. Everything works as expected on it, the battery shows 100% capacity, there isnt a single scratch on either the glass or metal. Not even where you plug it in to charge. The previous owner must have used it for a short period of time and kept it in a case. The package was alright, the included charger and brick is straight up e-waste and if Amazon really cared about the environment they would either include a real apple charger or nothing at all. That being said I could care less about the included charger since I already have one and was expecting it to be trash since they only specified it would be compliant to apple's standards. This review is for a Renewed Premium so keep thar in mind.</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Gustavo Perez</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Practically brand new</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="n">
+        <v>5</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1290,29 +1602,40 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>28</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Used iPhone?</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>MrsD</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>I purchased a renewed premium iPhone 14 for a crazy price. I thought it’d be good but literally looks new. Zero scratches or blemishes. The battery isn’t 90% as they say in the renewed premium description IT’S 100%!!!! This exceeded my expectations by a million. I saved a few hundred bucks buying from here instead of from my carrier and their quality isn’t nearly as high as Amazon’s. Also get a 12 month warranty when my carrier gives none unless you pay per month. Just be sure Amazon is the seller and you won’t be disappointed</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>MrsD</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Used iPhone?</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="n">
+        <v>5</v>
+      </c>
+      <c r="H29" t="inlineStr">
         <is>
           <t>12 people found this helpful</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1320,29 +1643,40 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>29</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Perfect condition</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Leslie Reyes</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>The phone came in a nice box with information about who checked it and more details. I am satisfied with my purchase. The battery health was at 100%! With that said I’ve only had it for a day so it might be a little to early to say the phone is flaw less. Still the body is perfect… not a scratch. The color is beautiful, I got it in the purple.</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
         <v>4</v>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>The phone came in a nice box with information about who checked it and more details. I am satisfied with my purchase. The battery health was at 100%! With that said I’ve only had it for a day so it might be a little to early to say the phone is flaw less. Still the body is perfect… not a scratch. The color is beautiful, I got it in the purple.</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Leslie Reyes</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Perfect condition</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>8 people found this helpful</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1350,30 +1684,41 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B31" t="inlineStr">
+        <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>30</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Definitely worth the investment</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Richard Dumostil</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
         <is>
           <t>I was reluctant to buy a refurbished phone but since this phone came with a year warranty. I figured I give it a shot. It did not disappoint. The phone looks brand new. No scratches, no issues appearance wise. I definitely will continue to purchase my phones from Amazon.
 The only issue I had with this phone was setting it up and transferring my phone number. That wasn’t really because of the phone though. The problem was with my phone company. Once I got it going it’s be working perfectly since.</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Richard Dumostil</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Definitely worth the investment</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="n">
+        <v>5</v>
+      </c>
+      <c r="H31" t="inlineStr">
         <is>
           <t>9 people found this helpful</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1381,29 +1726,40 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>31</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Problema con calidad de imagen</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Está bueno elProducto</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>La cámara no es igual a la de otros iPhone 14 . Es más opaco (colores distintos)y se ve más pequeña la imagen a comparación de la misma configuración en otros iPhones 14</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
         <v>3</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>La cámara no es igual a la de otros iPhone 14 . Es más opaco (colores distintos)y se ve más pequeña la imagen a comparación de la misma configuración en otros iPhones 14</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Está bueno elProducto</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Problema con calidad de imagen</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1411,29 +1767,40 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>32</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Great phone</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Donald Reid Lowery Jr</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
           <t>Great phone. Basically brand new. 100 percent battery life. Not a scratch on phone.</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Donald Reid Lowery Jr</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Great phone</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="n">
+        <v>5</v>
+      </c>
+      <c r="H33" t="inlineStr">
         <is>
           <t>5 people found this helpful</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1441,29 +1808,40 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>33</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Funciona y se mira bien</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Daniel831</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
           <t>Llevo un día usándolo y aparecer funciona bien y en lo físico también se mira bien y las batería esta al 100% de vida</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Daniel831</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Funciona y se mira bien</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="n">
+        <v>5</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1471,29 +1849,40 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>34</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Brand new</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Amanda W.</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
           <t>Works perfect with straight talk 100% battery and not a single scratch dent or anything! Beyond happy and will def buy my next phone through here</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Amanda W.</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Brand new</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="n">
+        <v>5</v>
+      </c>
+      <c r="H35" t="inlineStr">
         <is>
           <t>8 people found this helpful</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1501,29 +1890,40 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>35</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Phone looks brand new</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Scott B.</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
           <t>I was initially hesitant to purchase this reconditioned phone when for about $100 more I could have a brand new one from Apple with a warranty. But I pulled the trigger and am glad I did. The phone arrived and looked flawless not a scratch, dent or ding. With the money I saved I purchased a protective case and screen protector. Battery health is at 99% on this device so I am very happy with the purchase.</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Scott B.</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Phone looks brand new</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="n">
+        <v>5</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1531,29 +1931,40 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>36</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Great value for your money</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Taja S.</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
           <t>I purchased this phone and I must say that I was pretty surprised when it came, like this phone is brand new and has no dents or markings on it even though it's a renewed premium. It was a great deal compared to buying it at the Apple Store and the battery life is a 100%, yes a 100!! Everything works perfectly on the phone and that's what I love the most. Great value for your money and you should definitely get it</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Taja S.</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Great value for your money</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="n">
+        <v>5</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1561,31 +1972,42 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B38" t="inlineStr">
+        <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>37</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Better than new!</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Luis Kuthe</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
         <is>
           <t>The box contains Charger and cable.
 It was kind if new. The battery lasts 35-49 hours.
 The only CON it was not clear it don't come with sin slot.</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Luis Kuthe</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Better than new!</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="n">
+        <v>4</v>
+      </c>
+      <c r="H38" t="inlineStr">
         <is>
           <t>4 people found this helpful</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1593,29 +2015,40 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>38</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Great Buy!</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Jarmir Smith</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
           <t>Works &amp; look like a brand new phone! I saved a lot of money &amp; most importantly, given that it’s unlocked, I can take this phone to any carrier if I decide to leave my current carrier.</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Jarmir Smith</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Great Buy!</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="n">
+        <v>5</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1623,29 +2056,40 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>39</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Cómo nuevo</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Carlos Tocto</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
           <t>Excelente producto y llego bien embalado</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Carlos Tocto</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Cómo nuevo</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="n">
+        <v>5</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1653,29 +2097,40 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>40</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Excellent condition</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Nawal</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
           <t>I was initially hesitant to purchase a refurbished phone. However, now that I have this phone, I have no regrets. It's in fantastic shape. It doesn't even appear to be a refurbished phone. It appears to be a brand new iPhone. The battery life is 100%. So far, I haven't had any complaints. I am very pleased and would strongly recommend it.</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Nawal</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Excellent condition</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="n">
+        <v>5</v>
+      </c>
+      <c r="H41" t="inlineStr">
         <is>
           <t>3 people found this helpful</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1683,29 +2138,40 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>41</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Amazing Product!</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Zhen Mains</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
           <t>I wasn’t expecting a perfect condition phone since it is refurbished, but it came BEAUTIFULLY the maximum charging is 100% still and it feels like I got a brand new phone for almost $200 dollars less! I have always gotten refurbished phones, but this is probably the best one I have gotten!!</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Zhen Mains</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Amazing Product!</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="n">
+        <v>5</v>
+      </c>
+      <c r="H42" t="inlineStr">
         <is>
           <t>3 people found this helpful</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1713,29 +2179,40 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
+        <v>1</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>42</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Two small cracks in the screen</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Expected any cracked screen would have been replaced. The inspector check off both 'Cleanliness' and 'Cosmetics'</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
         <v>4</v>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Expected any cracked screen would have been replaced. The inspector check off both 'Cleanliness' and 'Cosmetics'</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>RD</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Two small cracks in the screen</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1743,29 +2220,40 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
+        <v>1</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>43</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Unhappy it was refurbish, my iPhone 14</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Peggy</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>This phone has not been working correctly. The screen stops in the middle of doing some thing. It’s frustrating. As soon as I can afford I will buy new.</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
         <v>2</v>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>This phone has not been working correctly. The screen stops in the middle of doing some thing. It’s frustrating. As soon as I can afford I will buy new.</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Peggy</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Unhappy it was refurbish, my iPhone 14</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1773,29 +2261,40 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>44</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>The phone came in nice and super clean</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Keron Bovil</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
           <t>The person really took their time to clean the phone. I didn’t buy the phone for myself so I can’t show you guys the video. I heard it also came with a charger which is very convenient and thoughtful.</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Keron Bovil</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>The phone came in nice and super clean</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="n">
+        <v>5</v>
+      </c>
+      <c r="H45" t="inlineStr">
         <is>
           <t>2 people found this helpful</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1803,29 +2302,40 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>45</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>The phone came in nice and super clean</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Keron Bovil</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
           <t>The person really took their time to clean the phone. I didn’t buy the phone for myself so I can’t show you guys the video. I heard it also came with a charger which is very convenient and thoughtful.</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Keron Bovil</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>The phone came in nice and super clean</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="n">
+        <v>5</v>
+      </c>
+      <c r="H46" t="inlineStr">
         <is>
           <t>2 people found this helpful</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1833,29 +2343,40 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>46</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>New !!!!</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Leonardo</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
           <t>New iPhone !!!! Battery 100 %</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Leonardo</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>New !!!!</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="n">
+        <v>5</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1863,29 +2384,40 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>47</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Cellphone looks amazing</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Alexandro11</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
           <t>No issues with the phone. No scratches or anything wrong</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Alexandro11</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Cellphone looks amazing</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="n">
+        <v>5</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1893,29 +2425,40 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>48</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Beautiful color</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>quanisha</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
           <t>My daughter loves it. Got it back in May and have not had any issues it does come with an automatic 1 year insurance if anything goes wrong. Beautiful color and works perfect</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>quanisha</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Beautiful color</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="n">
+        <v>5</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1923,29 +2466,40 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>49</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Like New</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>J Wong</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
           <t>Got this iPhone renewed premium. Phone was in excellent shape and remaining battery life was reported by the phone as 100%. Very pleased with this device. It did not come with original charger or packaging, but it was a great deal for the latest iPhone.</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>J Wong</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Like New</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="n">
+        <v>5</v>
+      </c>
+      <c r="H50" t="inlineStr">
         <is>
           <t>4 people found this helpful</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1953,29 +2507,40 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Was not compatible with my carrier Varizon.</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Bradley M.</t>
-        </is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>50</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Not a Varizon phone.</t>
+          <t>like new phone amazing</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0 helpful votes</t>
+          <t>victorb</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
+        <is>
+          <t>The phone didn’t come in the original box or with the original charger, but that doesn’t matter. The phone came brand new without a single scratch, scuff, not even a minor imperfection. Battery capacity is at 100% and performs as such. It works and operates as if I bought it brand new, it’s hard to believe this is preowned.</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>5</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>19 people found this helpful</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1983,29 +2548,40 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>The phone didn’t come in the original box or with the original charger, but that doesn’t matter. The phone came brand new without a single scratch, scuff, not even a minor imperfection. Battery capacity is at 100% and performs as such. It works and operates as if I bought it brand new, it’s hard to believe this is preowned.</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>victorb</t>
-        </is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>51</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>like new phone amazing</t>
+          <t>What an awesome upgrade.</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>19 people found this helpful</t>
+          <t>CindyJ</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
+        <is>
+          <t>What an awesome upgrade. Everything works as it should. Thank you for offering this at an affordable price. Love it!</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>5</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2013,29 +2589,40 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>What an awesome upgrade. Everything works as it should. Thank you for offering this at an affordable price. Love it!</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>CindyJ</t>
-        </is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>52</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>What an awesome upgrade.</t>
+          <t>Thinking About Renewed?</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0 helpful votes</t>
+          <t>Michael G. Crupi</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
+        <is>
+          <t>If you make the decision, you’ll never regret it. I’ve had this iPhone for months and it works perfectly.</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>5</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2043,29 +2630,40 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>If you make the decision, you’ll never regret it. I’ve had this iPhone for months and it works perfectly.</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Michael G. Crupi</t>
-        </is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>53</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Thinking About Renewed?</t>
+          <t>Exactly as advertised</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>0 helpful votes</t>
+          <t>Daniel Hodel</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
+        <is>
+          <t>Blemish-free, great battery, just what I wanted.</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>5</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>One person found this helpful</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2073,29 +2671,40 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Blemish-free, great battery, just what I wanted.</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Daniel Hodel</t>
-        </is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>54</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Exactly as advertised</t>
+          <t>Not a Varizon phone.</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>One person found this helpful</t>
+          <t>Bradley M.</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
+        <is>
+          <t>Was not compatible with my carrier Varizon.</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>3</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2103,29 +2712,40 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>55</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Thank you</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Amazon Customer</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
           <t>I return it beacause does not have slot for the fisical sim card that is the only reason i return it.</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Amazon Customer</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Thank you</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="n">
+        <v>5</v>
+      </c>
+      <c r="H56" t="inlineStr">
         <is>
           <t>One person found this helpful</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2133,29 +2753,40 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>56</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Feels like a new one</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Nithish</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
           <t>Good battery health is hundred percent</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Nithish</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Feels like a new one</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="n">
+        <v>5</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2163,29 +2794,40 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>57</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Love this phone!</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Cameron</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
           <t>Upgraded from the iPhone 11SE and I love this phone! The camera quality is excellent. The phone came in perfect condition.</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Cameron</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Love this phone!</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="n">
+        <v>5</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2193,29 +2835,40 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>58</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Nice iPhone</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Amazon Customer</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
           <t>Perfect phone.</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Amazon Customer</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Nice iPhone</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="n">
+        <v>5</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2223,29 +2876,40 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>59</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Great seller everything as promised.</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>debra_levesque</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
           <t>Love phone came perfect</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>debra_levesque</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Great seller everything as promised.</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="n">
+        <v>5</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2253,30 +2917,41 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B61" t="inlineStr">
+        <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>60</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Llego en muy buen estado y funciona perfecto</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Rocio castrellon</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
         <is>
           <t>Me encanto llego en muy buen estado…
 La vida de batería esta al %100 quede fascinada</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Rocio castrellon</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Llego en muy buen estado y funciona perfecto</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="n">
+        <v>5</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2284,29 +2959,40 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>61</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>carolyn</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
           <t>Love it</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>carolyn</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Nice</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="n">
+        <v>5</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2314,31 +3000,42 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B63" t="inlineStr">
+        <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>62</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Impecable</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Jeremy Aguilar Padilla</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
         <is>
           <t>De regalo de cumpleaños a mi esposa.
 Teléfono impecable, como nuevo, ni un rasguño, batería 100%.
 Sin duda pronto compraré uno para mi.</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Jeremy Aguilar Padilla</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Impecable</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="n">
+        <v>5</v>
+      </c>
+      <c r="H63" t="inlineStr">
         <is>
           <t>4 people found this helpful</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2346,29 +3043,40 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>63</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Great</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Errol Daniel</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
           <t>Received in a very pristine condition and works just as well.</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Errol Daniel</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Great</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="n">
+        <v>5</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2376,29 +3084,40 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>64</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>It looks like a brand new iPhone.</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>João Victor Engelmann</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
           <t>It looks like a brand new iPhone. I'm very happy with this product and certainly would buy a refurbished amazon product again.</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>João Victor Engelmann</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>It looks like a brand new iPhone.</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="n">
+        <v>5</v>
+      </c>
+      <c r="H65" t="inlineStr">
         <is>
           <t>5 people found this helpful</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2410,25 +3129,36 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>65</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Not unlocked for all mobile carriers.</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Brooke</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
           <t>These are not fully unlocked. Tried many times and spent 10+ hours trying to get this phone working with my mobile carrier before someone figured out this phone is not compatible with Verison. I had to decide to take the monetary loss on the phone return or switch carriers.</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Brooke</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Not unlocked for all mobile carriers.</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="n">
+        <v>1</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2440,25 +3170,36 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>66</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Black listed phone</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Michelle Hayes</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
           <t>Phone I was in excellent condition but and it’s a big but……black listed by my provider. Description said could be us dead but no. Apparently it was a stolen item. Don’t know if I can trust Amazon any longer. Very sad</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Michelle Hayes</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Black listed phone</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="n">
+        <v>1</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2466,29 +3207,40 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>67</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Like new</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Mike Burrell</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
           <t>Replaced iPhone 6. It was easy to transfer info. New phone was refurbished, like new.</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Mike Burrell</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Like new</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="n">
+        <v>5</v>
+      </c>
+      <c r="H68" t="inlineStr">
         <is>
           <t>2 people found this helpful</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2496,29 +3248,40 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>68</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Product as advertised</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>weezygirl</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
           <t>Product arrived as advertised. No blemishes. :obed the red. Set up went smooth with aide of tech. Battery 100%. Cou;dn't be happier</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>weezygirl</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Product as advertised</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="n">
+        <v>5</v>
+      </c>
+      <c r="H69" t="inlineStr">
         <is>
           <t>3 people found this helpful</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2526,29 +3289,40 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>69</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Excelente</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Ceci</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
           <t>Como nuevo ! Excelente relación precio calidad</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Ceci</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Excelente</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="n">
+        <v>5</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2556,29 +3330,40 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>70</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Works Perfect!</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>BoilerMomSki</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
           <t>Phone is in perfect working condition. No scratches. Looks and works like brand new. 100% battery health. Great option to save some money on a new phone.</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>BoilerMomSki</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Works Perfect!</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="n">
+        <v>5</v>
+      </c>
+      <c r="H71" t="inlineStr">
         <is>
           <t>7 people found this helpful</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2586,29 +3371,40 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>71</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Es lo que esperaba, calidad</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>jose</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
           <t>Me agrado la presteza del envio</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>jose</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Es lo que esperaba, calidad</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="n">
+        <v>5</v>
+      </c>
+      <c r="H72" t="inlineStr">
         <is>
           <t>2 people found this helpful</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2616,29 +3412,40 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>72</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>Good</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>Abel</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>Good</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="n">
+        <v>5</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2646,29 +3453,40 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>73</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Product helpful</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>wayne scales</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
           <t>This was a major upgrade from my iPhone 5.</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>wayne scales</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Product helpful</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="n">
+        <v>5</v>
+      </c>
+      <c r="H74" t="inlineStr">
         <is>
           <t>4 people found this helpful</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2680,25 +3498,36 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>74</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>problems to activate eSim</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>mario a.</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
           <t>IS NOT POSSIBLE TO ACTIVATE A NEW E SIM , DUE NOT OPTIONS TO SETTING , NEED YOUR SUPPORT OR MY MONEY BACK PLEASE</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>mario a.</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>problems to activate eSim</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="n">
+        <v>1</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2710,25 +3539,36 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>75</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Beware, MDM locked</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Hiroki O.</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
           <t>I got the phone which has a MDM lock, a unit owned by NYC DOITT, and of course I couldn’t activate it.</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Hiroki O.</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Beware, MDM locked</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
+      <c r="G76" t="n">
+        <v>1</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2740,25 +3580,36 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>76</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Refurbished Trash</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Jody C.</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
           <t>Purchased a $819.00 Apple 14 Starlight it started having issues a month ago it’s 4 months old. I had to pay $120.00 to use warranty to get a credit for the amount from Amazon. That is crap I’m out a phone and now I have credit for 819.00 on Amazon.</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Jody C.</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Refurbished Trash</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="n">
+        <v>1</v>
+      </c>
+      <c r="H77" t="inlineStr">
         <is>
           <t>8 people found this helpful</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2766,29 +3617,40 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>77</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>good phone</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Miguel Sarmiento</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
           <t>very good and as described</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Miguel Sarmiento</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>good phone</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
+      <c r="G78" t="n">
+        <v>5</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2796,30 +3658,41 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B79" t="inlineStr">
+        <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>78</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Great phone</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Donald A. Podoloff. MD</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
         <is>
           <t>Met expectations
 No SIM card need,ed</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Donald A. Podoloff. MD</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Great phone</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="n">
+        <v>5</v>
+      </c>
+      <c r="H79" t="inlineStr">
         <is>
           <t>4 people found this helpful</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2827,29 +3700,40 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>79</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>No complaints</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Luis Lemus</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
           <t>Works fine</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Luis Lemus</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>No complaints</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="n">
+        <v>5</v>
+      </c>
+      <c r="H80" t="inlineStr">
         <is>
           <t>2 people found this helpful</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2857,29 +3741,40 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>80</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>New iPhone 14</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>deangross</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
           <t>Excellent so far</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>deangross</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>New iPhone 14</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="n">
+        <v>5</v>
+      </c>
+      <c r="H81" t="inlineStr">
         <is>
           <t>2 people found this helpful</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2887,29 +3782,40 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>81</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Kuuri</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
           <t>Looks great and works just fine</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Kuuri</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="n">
+        <v>5</v>
+      </c>
+      <c r="H82" t="inlineStr">
         <is>
           <t>One person found this helpful</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2921,25 +3827,36 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>82</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Amazon refurbished (grade A) was found to be blacklisted by the AT&amp;T store</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>IH8PEAS</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
           <t>Amazon refurbished (grade A) was found to be blacklisted. I had major problems and had to take it to the AT&amp;T store. They said it was blacklisted and unusable. Not recommended. Huge pain and waste of time. Christmas gift failure. Do not trust this seller</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>IH8PEAS</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Amazon refurbished (grade A) was found to be blacklisted by the AT&amp;T store</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="n">
+        <v>1</v>
+      </c>
+      <c r="H83" t="inlineStr">
         <is>
           <t>One person found this helpful</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2951,25 +3868,36 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>83</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Phone looked great, but that was it</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Ryan Praiswater</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
           <t>received next day shipping, opened box, charged phone fully. Went to setup phone and a few min in phone shut off. I turned phone back on, restarted the setup process and it shut off again. after about an hour and multiple tries I was able to make it to the home screen where I went to go to setting and login to my apple account and the phone said it was overheating(when it was at room temp). at this point I decide to contact a amazon representative, where I was asked multiple times what I may have done to cause this issue. no solution on amazons end was offered until I threaten to call instead.</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Ryan Praiswater</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Phone looked great, but that was it</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="n">
+        <v>1</v>
+      </c>
+      <c r="H84" t="inlineStr">
         <is>
           <t>9 people found this helpful</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2981,25 +3909,36 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>84</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Black listed</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Dean D.</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
           <t>The phone could no be used!</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Dean D.</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Black listed</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
+      <c r="G85" t="n">
+        <v>1</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -3011,25 +3950,36 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>85</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>DO NOT BUY</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Taytay</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
           <t>Do not buy any of these “unlocked iPhones” from Amazon save yourself the headache, I troubleshot this iPhone for 3 days thinking there was a problem with my carrier and my service was not working. I even took it to apple to have them run diagnostics and weird stuff came back saying it was purchased in 1978 which could be a indicator that it has been stolen. Best to save yourself the headache and buy a brand new one straight from apple. Hope this helps.</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Taytay</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>DO NOT BUY</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="n">
+        <v>1</v>
+      </c>
+      <c r="H86" t="inlineStr">
         <is>
           <t>5 people found this helpful</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -3041,25 +3991,36 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>86</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>BEWARE Couldn't be used on the Xfinity Mobile Network which uses Verizon</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Robert G. Gerade</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
           <t>I was unable to activate this phone on the Xfinity Mobile phone network which uses Verizon as the phone was incompatible with the network. I spent 5 days, 4 tech calls and a visit to the local Xfinity store before they informed me that it appears that the phone may have been an international phone that can't be used on the Xfinity network. I had to return it.</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Robert G. Gerade</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>BEWARE Couldn't be used on the Xfinity Mobile Network which uses Verizon</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="n">
+        <v>1</v>
+      </c>
+      <c r="H87" t="inlineStr">
         <is>
           <t>14 people found this helpful</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -3071,25 +4032,36 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>87</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>I regret buying this</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>gumeboy67</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
           <t>it was nothing but problem from the start did not want to transfer from my old iPhone neither from iCloud would not access my SIM card transfer....what a piece of junk. very unhappy</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>gumeboy67</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>I regret buying this</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="n">
+        <v>1</v>
+      </c>
+      <c r="H88" t="inlineStr">
         <is>
           <t>One person found this helpful</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -3101,26 +4073,37 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>88</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Issues with charging and phone battery</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Amazon Customer</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
           <t>First issue was charging, charger sent by Amazon was not working
 Second is battery issue</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Amazon Customer</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Issues with charging and phone battery</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
+      <c r="G89" t="n">
+        <v>1</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -3132,25 +4115,36 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>89</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Beware</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>chad osborne</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
           <t>Item clearly stated it was an unlocked phone that could be used with any carrier. After trying for an hour with straight talk I was unsuccessful at doing so. Not happy</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>chad osborne</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Beware</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="n">
+        <v>1</v>
+      </c>
+      <c r="H90" t="inlineStr">
         <is>
           <t>5 people found this helpful</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -3162,25 +4156,36 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>90</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Can’t use with Straight Talk</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Linda Garlin</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
           <t>Had to send it back just waiting for refund</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Linda Garlin</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Can’t use with Straight Talk</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
+      <c r="G91" t="n">
+        <v>1</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -3192,25 +4197,36 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>91</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>Item to exspensive</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>Cynt</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>Item to exspensive</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
+      <c r="G92" t="n">
+        <v>1</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -3222,25 +4238,36 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>92</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Premium renewed y está Rayado!</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Montserrat</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
           <t>Específicamente indicaba que no presentaba rayas y por eso seleccioné pagar más para garantizar eso. Raya significativamente grande en pantalla!!!!!!!</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Montserrat</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Premium renewed y está Rayado!</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="n">
+        <v>1</v>
+      </c>
+      <c r="H93" t="inlineStr">
         <is>
           <t>33 people found this helpful</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -3248,29 +4275,40 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
+        <v>1</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>93</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Locked to Wrong Carrier</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Samantha A</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>The phone looked great when it arrived. I was happy that it had 100% Battery health even though I purchased acceptable. However it was locked to the wrong carrier and I was not able to activate the phone. I am disappointed as I was looking forward to a better phone and a good deal for it. I am returning it because it's useless. Verizon couldn't even tell me what carrier it was locked to, which they said was very unusual.</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
         <v>2</v>
       </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>The phone looked great when it arrived. I was happy that it had 100% Battery health even though I purchased acceptable. However it was locked to the wrong carrier and I was not able to activate the phone. I am disappointed as I was looking forward to a better phone and a good deal for it. I am returning it because it's useless. Verizon couldn't even tell me what carrier it was locked to, which they said was very unusual.</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Samantha A</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Locked to Wrong Carrier</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>One person found this helpful</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>Not a Verified Purchase</t>
         </is>
@@ -3278,29 +4316,40 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>94</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Awesome!!!</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Tahesha Carr</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
           <t>I Got it for my sons 14th Bday and it is still working he is 18 Now!!! No problems.No Glitches.Plenty od storage. Perfect gift that will last a lifetime!!!</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Tahesha Carr</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Awesome!!!</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
+      <c r="G95" t="n">
+        <v>5</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
         <is>
           <t>Not a Verified Purchase</t>
         </is>
@@ -3312,25 +4361,36 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>95</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Awful phone</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Joe</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
           <t>Absolutely terrible. I have been using apple for over a decade and have put up with bad phones before but this phone is just too awful. Breaks and freezes daily, my phone from 2013 was more reliable and less expensive. Finally going to switch to android. Even though I just bought this phone, I have to be able to reliably make phone calls.</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>Joe</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Awful phone</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
+      <c r="G96" t="n">
+        <v>1</v>
+      </c>
+      <c r="H96" t="inlineStr">
         <is>
           <t>One person found this helpful</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>Not a Verified Purchase</t>
         </is>
@@ -3338,29 +4398,40 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
+        <v>1</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>96</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>This is a waste of money</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Andrea Ogle</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>This company is a joke. You have a problem with your phone and their answer is just to suck it up after paying 1K for it . Totally not worth your money. I got mine brand new and three months later the cellular data does not work. I bring it to customer support and they say there’s nothing wrong with and to suck it up. iPhone works great, I just hope you don’t get the one that’s defective bc they will not be responsible for it</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
         <v>2</v>
       </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>This company is a joke. You have a problem with your phone and their answer is just to suck it up after paying 1K for it . Totally not worth your money. I got mine brand new and three months later the cellular data does not work. I bring it to customer support and they say there’s nothing wrong with and to suck it up. iPhone works great, I just hope you don’t get the one that’s defective bc they will not be responsible for it</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Andrea Ogle</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>This is a waste of money</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
         <is>
           <t>Not a Verified Purchase</t>
         </is>
@@ -3368,29 +4439,40 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>97</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>As expected!</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Colin Reed</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
           <t>Got this as a gift for my girlfriend. She had a iPhone 11 with a very badly damaged screen and shell, so I purchased to upgrade her without the steep price of a brand new 14 and to make sure she doesn't end up with no way to contact. Battery at 100% life when arrived, no scratches or cosmetic damage, looks and functions exactly as a brand new iPhone. She is extremely happy and satisfied! Came in nice packaging with bubble wrap, double-boxed. Great option! Will update if anything changes.</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Colin Reed</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>As expected!</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
+      <c r="G98" t="n">
+        <v>5</v>
+      </c>
+      <c r="H98" t="inlineStr">
         <is>
           <t>8 people found this helpful</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>Not a Verified Purchase</t>
         </is>
@@ -3402,25 +4484,36 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>98</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>🤦🏻</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Valerie</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
           <t>Wasn’t able to use or set up iPhone due to it having previous Lock Screen code! It was suppose to be a birthday gift for my wife and she wasn’t even able to use it! And it came with a certification that it was tested and previous data had been removed !!!</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Valerie</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>🤦🏻</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
+      <c r="G99" t="n">
+        <v>1</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
         <is>
           <t>Not a Verified Purchase</t>
         </is>
@@ -3432,25 +4525,36 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>99</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Doesn’t work</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Brigitte V</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
           <t>Bought this thinking great, an unlocked iPhone to work with my carrier straight talk. I received this today and it would not let me activate it so after calling apple they said this is usually when I phone is jail broken or stolen. I am heartbroken I was absolutely so excited for this and am majorly disappointed with Amazon for not making sure this doesn’t happen.</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Brigitte V</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Doesn’t work</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
+      <c r="G100" t="n">
+        <v>1</v>
+      </c>
+      <c r="H100" t="inlineStr">
         <is>
           <t>10 people found this helpful</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>Not a Verified Purchase</t>
         </is>
@@ -3458,29 +4562,40 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>100</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Excelente compra</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Luis Daniel Lezama Galaschow</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
           <t>Tiene el 100% de la bateria y esta en excelente estado, ni un ralla, practicamente nuevo</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>Luis Daniel Lezama Galaschow</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>Excelente compra</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
+      <c r="G101" t="n">
+        <v>5</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
